--- a/quan.java/config/excel/常量.xlsx
+++ b/quan.java/config/excel/常量.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C305317-52D4-4B30-80DA-A7E9180D26D2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D677F5C-E669-49BA-84A8-B7BF438B7942}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>注释</t>
   </si>
@@ -45,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>constant3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奖励List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +62,10 @@
   </si>
   <si>
     <t>常量Key</t>
+  </si>
+  <si>
+    <t>常量4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -390,23 +390,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -434,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -445,18 +445,26 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
